--- a/jogos_2025-05-26.xlsx
+++ b/jogos_2025-05-26.xlsx
@@ -271,18 +271,18 @@
     <t>Algeria Ligue 1</t>
   </si>
   <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
+    <t>Norway Eliteserien</t>
+  </si>
+  <si>
     <t>Turkey Süper Lig</t>
   </si>
   <si>
-    <t>Norway Eliteserien</t>
-  </si>
-  <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
     <t>Austria Bundesliga</t>
   </si>
   <si>
@@ -337,78 +337,78 @@
     <t>AFC Wimbledon</t>
   </si>
   <si>
+    <t>Ludogorets</t>
+  </si>
+  <si>
     <t>Cherno More</t>
   </si>
   <si>
-    <t>Ludogorets</t>
-  </si>
-  <si>
     <t>Mash'al</t>
   </si>
   <si>
     <t>US Biskra</t>
   </si>
   <si>
+    <t>Norrköping</t>
+  </si>
+  <si>
     <t>Oddevold</t>
   </si>
   <si>
+    <t>KFUM</t>
+  </si>
+  <si>
+    <t>Landskrona</t>
+  </si>
+  <si>
+    <t>Brage</t>
+  </si>
+  <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>LASK Linz</t>
+  </si>
+  <si>
     <t>Umeå</t>
   </si>
   <si>
-    <t>Hatayspor</t>
-  </si>
-  <si>
-    <t>KFUM</t>
-  </si>
-  <si>
-    <t>Brage</t>
-  </si>
-  <si>
-    <t>Landskrona</t>
-  </si>
-  <si>
-    <t>Norrköping</t>
-  </si>
-  <si>
-    <t>LASK Linz</t>
-  </si>
-  <si>
     <t>Hammarby</t>
   </si>
   <si>
+    <t>Botev Plovdiv</t>
+  </si>
+  <si>
     <t>Beroe</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
-  </si>
-  <si>
     <t>BATE</t>
   </si>
   <si>
+    <t>Al Riyadh</t>
+  </si>
+  <si>
+    <t>Al Raed</t>
+  </si>
+  <si>
+    <t>Al Fateh</t>
+  </si>
+  <si>
+    <t>Al Orubah</t>
+  </si>
+  <si>
+    <t>Al Khaleej</t>
+  </si>
+  <si>
     <t>Al Ittifaq</t>
   </si>
   <si>
-    <t>Al Khaleej</t>
-  </si>
-  <si>
-    <t>Al Fateh</t>
+    <t>Al Feiha</t>
   </si>
   <si>
     <t>Al Ittihad</t>
   </si>
   <si>
-    <t>Al Raed</t>
-  </si>
-  <si>
-    <t>Al Feiha</t>
-  </si>
-  <si>
-    <t>Al Orubah</t>
-  </si>
-  <si>
-    <t>Al Riyadh</t>
-  </si>
-  <si>
     <t>Al Hilal</t>
   </si>
   <si>
@@ -466,76 +466,76 @@
     <t>Walsall</t>
   </si>
   <si>
+    <t>Arda</t>
+  </si>
+  <si>
     <t>Levski Sofia</t>
   </si>
   <si>
-    <t>Arda</t>
-  </si>
-  <si>
     <t>Bunyodkor</t>
   </si>
   <si>
     <t>MC Oran</t>
   </si>
   <si>
+    <t>Mjällby</t>
+  </si>
+  <si>
     <t>Västerås SK</t>
   </si>
   <si>
+    <t>Vålerenga</t>
+  </si>
+  <si>
+    <t>Falkenberg</t>
+  </si>
+  <si>
+    <t>Utsikten</t>
+  </si>
+  <si>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
+    <t>Hartberg</t>
+  </si>
+  <si>
     <t>Örgryte</t>
   </si>
   <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
-    <t>Vålerenga</t>
-  </si>
-  <si>
-    <t>Utsikten</t>
-  </si>
-  <si>
-    <t>Falkenberg</t>
-  </si>
-  <si>
-    <t>Mjällby</t>
-  </si>
-  <si>
-    <t>Hartberg</t>
-  </si>
-  <si>
     <t>Degerfors</t>
   </si>
   <si>
+    <t>CSKA Sofia</t>
+  </si>
+  <si>
     <t>Spartak Varna</t>
   </si>
   <si>
-    <t>CSKA Sofia</t>
-  </si>
-  <si>
     <t>Smorgon</t>
   </si>
   <si>
+    <t>Al Ahli</t>
+  </si>
+  <si>
+    <t>Al Kholood</t>
+  </si>
+  <si>
+    <t>Al Nassr</t>
+  </si>
+  <si>
+    <t>Al Taawon</t>
+  </si>
+  <si>
+    <t>Al Akhdoud</t>
+  </si>
+  <si>
     <t>Al Wahda</t>
   </si>
   <si>
-    <t>Al Akhdoud</t>
-  </si>
-  <si>
-    <t>Al Nassr</t>
+    <t>Al Shabab</t>
   </si>
   <si>
     <t>Dhamk</t>
-  </si>
-  <si>
-    <t>Al Kholood</t>
-  </si>
-  <si>
-    <t>Al Shabab</t>
-  </si>
-  <si>
-    <t>Al Taawon</t>
-  </si>
-  <si>
-    <t>Al Ahli</t>
   </si>
   <si>
     <t>Al Quadisiya</t>
@@ -1498,13 +1498,13 @@
         <v>187</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1859,55 +1859,55 @@
         <v>1.38</v>
       </c>
       <c r="S6">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="T6">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="U6">
         <v>1.37</v>
       </c>
       <c r="V6">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="W6">
         <v>1.08</v>
       </c>
       <c r="X6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="Y6">
         <v>9</v>
       </c>
       <c r="Z6">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AA6">
-        <v>3.22</v>
+        <v>3.4</v>
       </c>
       <c r="AB6">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AC6">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AD6">
         <v>3.2</v>
       </c>
       <c r="AE6">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AF6">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AG6">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH6">
-        <v>5.9</v>
+        <v>5.75</v>
       </c>
       <c r="AI6">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AJ6" t="s">
         <v>189</v>
@@ -1916,13 +1916,13 @@
         <v>189</v>
       </c>
       <c r="AL6">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM6">
         <v>1.31</v>
       </c>
       <c r="AN6">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AO6">
         <v>-1</v>
@@ -2178,76 +2178,76 @@
         <v>187</v>
       </c>
       <c r="L8">
-        <v>1.73</v>
+        <v>2.53</v>
       </c>
       <c r="M8">
-        <v>3.23</v>
+        <v>3.32</v>
       </c>
       <c r="N8">
-        <v>4.3</v>
+        <v>2.36</v>
       </c>
       <c r="O8">
-        <v>1.59</v>
+        <v>2.25</v>
       </c>
       <c r="P8">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q8">
-        <v>2.75</v>
+        <v>1.81</v>
       </c>
       <c r="R8">
         <v>1.4</v>
       </c>
       <c r="S8">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="T8">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="V8">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="W8">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="X8">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z8">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AA8">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="AB8">
         <v>2</v>
       </c>
       <c r="AC8">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AD8">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AE8">
         <v>1.25</v>
       </c>
       <c r="AF8">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AG8">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="AH8">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AI8">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AJ8" t="s">
         <v>189</v>
@@ -2256,43 +2256,43 @@
         <v>189</v>
       </c>
       <c r="AL8">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM8">
         <v>1.28</v>
       </c>
       <c r="AN8">
-        <v>2.02</v>
+        <v>1.28</v>
       </c>
       <c r="AO8">
         <v>-1</v>
       </c>
       <c r="AP8">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AR8">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="AS8">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="AT8">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AU8">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="AV8">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AW8">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AX8">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AY8">
         <v>1.24</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>1.59</v>
+        <v>2.25</v>
       </c>
       <c r="BC8">
-        <v>2.75</v>
+        <v>1.81</v>
       </c>
       <c r="BD8" s="3">
         <v>45803.48958333334</v>
@@ -2348,49 +2348,49 @@
         <v>187</v>
       </c>
       <c r="L9">
-        <v>2.53</v>
+        <v>1.73</v>
       </c>
       <c r="M9">
-        <v>3.32</v>
+        <v>3.23</v>
       </c>
       <c r="N9">
-        <v>2.36</v>
+        <v>4.3</v>
       </c>
       <c r="O9">
-        <v>2.25</v>
+        <v>1.59</v>
       </c>
       <c r="P9">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="Q9">
-        <v>1.81</v>
+        <v>2.75</v>
       </c>
       <c r="R9">
         <v>1.39</v>
       </c>
       <c r="S9">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U9">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V9">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="W9">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="X9">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="Y9">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="Z9">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AA9">
         <v>2.9</v>
@@ -2399,25 +2399,25 @@
         <v>2</v>
       </c>
       <c r="AC9">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AD9">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AE9">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF9">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AG9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AH9">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI9">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AJ9" t="s">
         <v>189</v>
@@ -2426,46 +2426,46 @@
         <v>189</v>
       </c>
       <c r="AL9">
-        <v>1.65</v>
+        <v>1.17</v>
       </c>
       <c r="AM9">
         <v>1.28</v>
       </c>
       <c r="AN9">
-        <v>1.35</v>
+        <v>2.02</v>
       </c>
       <c r="AO9">
         <v>-1</v>
       </c>
       <c r="AP9">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="AQ9">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AR9">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="AS9">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="AT9">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AU9">
-        <v>2.17</v>
+        <v>2.38</v>
       </c>
       <c r="AV9">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="AW9">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AX9">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AY9">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -2474,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>2.25</v>
+        <v>1.59</v>
       </c>
       <c r="BC9">
-        <v>1.81</v>
+        <v>2.75</v>
       </c>
       <c r="BD9" s="3">
         <v>45803.48958333334</v>
@@ -2858,76 +2858,76 @@
         <v>187</v>
       </c>
       <c r="L12">
-        <v>3.02</v>
+        <v>2.67</v>
       </c>
       <c r="M12">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
       <c r="N12">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="O12">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="P12">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="Q12">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="R12">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S12">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="T12">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="V12">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="W12">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="X12">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Y12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z12">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AA12">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="AB12">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AC12">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AD12">
-        <v>3.65</v>
+        <v>2.55</v>
       </c>
       <c r="AE12">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="AF12">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AG12">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AH12">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AI12">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AJ12" t="s">
         <v>189</v>
@@ -2936,46 +2936,46 @@
         <v>189</v>
       </c>
       <c r="AL12">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AM12">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AN12">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AO12">
         <v>-1</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ12">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AR12">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AS12">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="AT12">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="AU12">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AV12">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="AW12">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
       <c r="AX12">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="AY12">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AZ12">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="BC12">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="BD12" s="3">
         <v>45803.58333333334</v>
@@ -3001,7 +3001,7 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
@@ -3028,76 +3028,76 @@
         <v>187</v>
       </c>
       <c r="L13">
-        <v>2.68</v>
+        <v>3.02</v>
       </c>
       <c r="M13">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="N13">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="O13">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q13">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R13">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="S13">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="T13">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="U13">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="V13">
-        <v>5.75</v>
+        <v>7.6</v>
       </c>
       <c r="W13">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="X13">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Y13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z13">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AA13">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="AB13">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="AC13">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AD13">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="AE13">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AF13">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AG13">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AH13">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="AI13">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AJ13" t="s">
         <v>189</v>
@@ -3106,10 +3106,10 @@
         <v>189</v>
       </c>
       <c r="AL13">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AM13">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AN13">
         <v>1.35</v>
@@ -3118,34 +3118,34 @@
         <v>-1</v>
       </c>
       <c r="AP13">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR13">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AS13">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AT13">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AU13">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AV13">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AW13">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AX13">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AY13">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -3154,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="BC13">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="BD13" s="3">
         <v>45803.58333333334</v>
@@ -3171,10 +3171,10 @@
         <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
         <v>113</v>
@@ -3198,76 +3198,76 @@
         <v>187</v>
       </c>
       <c r="L14">
-        <v>9.59</v>
+        <v>2.56</v>
       </c>
       <c r="M14">
-        <v>7.03</v>
+        <v>3.04</v>
       </c>
       <c r="N14">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="P14">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="Q14">
-        <v>1.25</v>
+        <v>1.91</v>
       </c>
       <c r="R14">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="S14">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="T14">
-        <v>1.67</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>2.1</v>
+        <v>1.33</v>
       </c>
       <c r="V14">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="W14">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="X14">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="Y14">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="Z14">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="AA14">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB14">
-        <v>1.22</v>
+        <v>1.96</v>
       </c>
       <c r="AC14">
-        <v>4.2</v>
+        <v>1.74</v>
       </c>
       <c r="AD14">
-        <v>1.61</v>
+        <v>3.65</v>
       </c>
       <c r="AE14">
-        <v>2.15</v>
+        <v>1.28</v>
       </c>
       <c r="AF14">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="AG14">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="AH14">
-        <v>2.35</v>
+        <v>7</v>
       </c>
       <c r="AI14">
-        <v>1.57</v>
+        <v>1.09</v>
       </c>
       <c r="AJ14" t="s">
         <v>189</v>
@@ -3276,46 +3276,46 @@
         <v>189</v>
       </c>
       <c r="AL14">
-        <v>3.8</v>
+        <v>1.49</v>
       </c>
       <c r="AM14">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="AN14">
-        <v>1.07</v>
+        <v>1.44</v>
       </c>
       <c r="AO14">
         <v>-1</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -3324,10 +3324,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="BC14">
-        <v>1.25</v>
+        <v>1.91</v>
       </c>
       <c r="BD14" s="3">
         <v>45803.58333333334</v>
@@ -3341,7 +3341,7 @@
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>99</v>
@@ -3368,76 +3368,76 @@
         <v>187</v>
       </c>
       <c r="L15">
-        <v>2.56</v>
+        <v>1.7</v>
       </c>
       <c r="M15">
-        <v>3.04</v>
+        <v>3.61</v>
       </c>
       <c r="N15">
+        <v>3.96</v>
+      </c>
+      <c r="O15">
+        <v>1.6</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>2.65</v>
+      </c>
+      <c r="R15">
+        <v>1.33</v>
+      </c>
+      <c r="S15">
+        <v>3.1</v>
+      </c>
+      <c r="T15">
         <v>2.5</v>
       </c>
-      <c r="O15">
-        <v>2.1</v>
-      </c>
-      <c r="P15">
-        <v>8.5</v>
-      </c>
-      <c r="Q15">
-        <v>1.91</v>
-      </c>
-      <c r="R15">
-        <v>1.44</v>
-      </c>
-      <c r="S15">
-        <v>2.63</v>
-      </c>
-      <c r="T15">
-        <v>3.25</v>
-      </c>
       <c r="U15">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="V15">
-        <v>9</v>
+        <v>6.35</v>
       </c>
       <c r="W15">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X15">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Y15">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z15">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AA15">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="AB15">
+        <v>1.74</v>
+      </c>
+      <c r="AC15">
         <v>1.96</v>
       </c>
-      <c r="AC15">
-        <v>1.74</v>
-      </c>
       <c r="AD15">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="AE15">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="AF15">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AG15">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AH15">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="AI15">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AJ15" t="s">
         <v>189</v>
@@ -3446,46 +3446,46 @@
         <v>189</v>
       </c>
       <c r="AL15">
-        <v>1.49</v>
+        <v>1.2</v>
       </c>
       <c r="AM15">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AN15">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="AO15">
         <v>-1</v>
       </c>
       <c r="AP15">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AR15">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="AS15">
+        <v>1.93</v>
+      </c>
+      <c r="AT15">
+        <v>2.4</v>
+      </c>
+      <c r="AU15">
+        <v>3.95</v>
+      </c>
+      <c r="AV15">
+        <v>2.8</v>
+      </c>
+      <c r="AW15">
         <v>2.18</v>
       </c>
-      <c r="AT15">
-        <v>2.8</v>
-      </c>
-      <c r="AU15">
-        <v>3.3</v>
-      </c>
-      <c r="AV15">
-        <v>2.48</v>
-      </c>
-      <c r="AW15">
-        <v>1.94</v>
-      </c>
       <c r="AX15">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="AY15">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="BC15">
-        <v>1.91</v>
+        <v>2.65</v>
       </c>
       <c r="BD15" s="3">
         <v>45803.58333333334</v>
@@ -3511,7 +3511,7 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
         <v>99</v>
@@ -3681,10 +3681,10 @@
         <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
         <v>116</v>
@@ -3708,76 +3708,76 @@
         <v>187</v>
       </c>
       <c r="L17">
-        <v>1.7</v>
+        <v>9.59</v>
       </c>
       <c r="M17">
-        <v>3.61</v>
+        <v>7.03</v>
       </c>
       <c r="N17">
-        <v>3.96</v>
+        <v>1.2</v>
       </c>
       <c r="O17">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="Q17">
-        <v>2.65</v>
+        <v>1.25</v>
       </c>
       <c r="R17">
+        <v>1.14</v>
+      </c>
+      <c r="S17">
+        <v>5.5</v>
+      </c>
+      <c r="T17">
+        <v>1.67</v>
+      </c>
+      <c r="U17">
+        <v>2.1</v>
+      </c>
+      <c r="V17">
+        <v>3.25</v>
+      </c>
+      <c r="W17">
         <v>1.33</v>
       </c>
-      <c r="S17">
-        <v>3.1</v>
-      </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>1.48</v>
-      </c>
-      <c r="V17">
-        <v>6.35</v>
-      </c>
-      <c r="W17">
+      <c r="X17">
+        <v>1.01</v>
+      </c>
+      <c r="Y17">
+        <v>29</v>
+      </c>
+      <c r="Z17">
         <v>1.06</v>
       </c>
-      <c r="X17">
-        <v>1.05</v>
-      </c>
-      <c r="Y17">
-        <v>10</v>
-      </c>
-      <c r="Z17">
-        <v>1.25</v>
-      </c>
       <c r="AA17">
-        <v>3.95</v>
+        <v>8.5</v>
       </c>
       <c r="AB17">
-        <v>1.74</v>
+        <v>1.22</v>
       </c>
       <c r="AC17">
-        <v>1.96</v>
+        <v>4.2</v>
       </c>
       <c r="AD17">
-        <v>3</v>
+        <v>1.61</v>
       </c>
       <c r="AE17">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="AF17">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AG17">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AH17">
-        <v>5.75</v>
+        <v>2.35</v>
       </c>
       <c r="AI17">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AJ17" t="s">
         <v>189</v>
@@ -3786,46 +3786,46 @@
         <v>189</v>
       </c>
       <c r="AL17">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="AM17">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1.07</v>
       </c>
       <c r="AO17">
         <v>-1</v>
       </c>
       <c r="AP17">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AQ17">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AU17">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="AV17">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AW17">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="AX17">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AY17">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AZ17">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="BC17">
-        <v>2.65</v>
+        <v>1.25</v>
       </c>
       <c r="BD17" s="3">
         <v>45803.58333333334</v>
@@ -3851,10 +3851,10 @@
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>117</v>
@@ -3878,76 +3878,76 @@
         <v>187</v>
       </c>
       <c r="L18">
-        <v>2.67</v>
+        <v>1.76</v>
       </c>
       <c r="M18">
-        <v>3.32</v>
+        <v>3.77</v>
       </c>
       <c r="N18">
-        <v>2.25</v>
+        <v>4.31</v>
       </c>
       <c r="O18">
-        <v>2.38</v>
+        <v>1.58</v>
       </c>
       <c r="P18">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="Q18">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="R18">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S18">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="V18">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="W18">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="X18">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Y18">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z18">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AA18">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB18">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="AC18">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="AD18">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="AE18">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AF18">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AG18">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="AH18">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="AI18">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AJ18" t="s">
         <v>189</v>
@@ -3956,47 +3956,47 @@
         <v>189</v>
       </c>
       <c r="AL18">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AM18">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AN18">
-        <v>1.43</v>
+        <v>1.98</v>
       </c>
       <c r="AO18">
         <v>-1</v>
       </c>
       <c r="AP18">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="AQ18">
+        <v>1.52</v>
+      </c>
+      <c r="AR18">
+        <v>1.88</v>
+      </c>
+      <c r="AS18">
+        <v>2.38</v>
+      </c>
+      <c r="AT18">
+        <v>3.15</v>
+      </c>
+      <c r="AU18">
+        <v>2.9</v>
+      </c>
+      <c r="AV18">
+        <v>2.47</v>
+      </c>
+      <c r="AW18">
+        <v>1.92</v>
+      </c>
+      <c r="AX18">
+        <v>1.56</v>
+      </c>
+      <c r="AY18">
         <v>1.3</v>
       </c>
-      <c r="AR18">
-        <v>1.5</v>
-      </c>
-      <c r="AS18">
-        <v>1.81</v>
-      </c>
-      <c r="AT18">
-        <v>2.23</v>
-      </c>
-      <c r="AU18">
-        <v>4.3</v>
-      </c>
-      <c r="AV18">
-        <v>3.05</v>
-      </c>
-      <c r="AW18">
-        <v>2.33</v>
-      </c>
-      <c r="AX18">
-        <v>1.88</v>
-      </c>
-      <c r="AY18">
-        <v>1.57</v>
-      </c>
       <c r="AZ18">
         <v>0</v>
       </c>
@@ -4004,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>2.38</v>
+        <v>1.58</v>
       </c>
       <c r="BC18">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="BD18" s="3">
         <v>45803.58333333334</v>
@@ -4021,10 +4021,10 @@
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
         <v>118</v>
@@ -4048,76 +4048,76 @@
         <v>187</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AJ19" t="s">
         <v>189</v>
@@ -4126,46 +4126,46 @@
         <v>189</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -4174,10 +4174,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BD19" s="3">
         <v>45803.58333333334</v>
@@ -4191,7 +4191,7 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
         <v>99</v>
@@ -4388,76 +4388,76 @@
         <v>187</v>
       </c>
       <c r="L21">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="M21">
-        <v>3.47</v>
+        <v>3.11</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>3.06</v>
       </c>
       <c r="O21">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="P21">
-        <v>14.25</v>
+        <v>13.75</v>
       </c>
       <c r="Q21">
-        <v>2.6</v>
+        <v>2.19</v>
       </c>
       <c r="R21">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S21">
         <v>3.2</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U21">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="V21">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="W21">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X21">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="Y21">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z21">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AA21">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB21">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AC21">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AD21">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="AE21">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AF21">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AG21">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="AH21">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="AI21">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AJ21" t="s">
         <v>189</v>
@@ -4466,46 +4466,46 @@
         <v>189</v>
       </c>
       <c r="AL21">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM21">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO21">
         <v>-1</v>
       </c>
       <c r="AP21">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AR21">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="AS21">
-        <v>2.57</v>
+        <v>2.37</v>
       </c>
       <c r="AT21">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="AU21">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="AV21">
-        <v>2.23</v>
+        <v>2.8</v>
       </c>
       <c r="AW21">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AX21">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AY21">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -4514,10 +4514,10 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="BC21">
-        <v>2.6</v>
+        <v>2.19</v>
       </c>
       <c r="BD21" s="3">
         <v>45803.61458333334</v>
@@ -4558,76 +4558,76 @@
         <v>187</v>
       </c>
       <c r="L22">
-        <v>2.12</v>
+        <v>1.72</v>
       </c>
       <c r="M22">
-        <v>3.11</v>
+        <v>3.47</v>
       </c>
       <c r="N22">
-        <v>3.06</v>
+        <v>4</v>
       </c>
       <c r="O22">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="P22">
-        <v>13.75</v>
+        <v>14.25</v>
       </c>
       <c r="Q22">
-        <v>2.19</v>
+        <v>2.6</v>
       </c>
       <c r="R22">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="S22">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="U22">
         <v>1.42</v>
       </c>
       <c r="V22">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="W22">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="X22">
         <v>1.02</v>
       </c>
       <c r="Y22">
-        <v>10</v>
+        <v>8.1</v>
       </c>
       <c r="Z22">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AA22">
-        <v>4</v>
+        <v>3.66</v>
       </c>
       <c r="AB22">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AC22">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AD22">
-        <v>2.71</v>
+        <v>2.84</v>
       </c>
       <c r="AE22">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AF22">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AG22">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AH22">
-        <v>5</v>
+        <v>5.65</v>
       </c>
       <c r="AI22">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AJ22" t="s">
         <v>189</v>
@@ -4636,46 +4636,46 @@
         <v>189</v>
       </c>
       <c r="AL22">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AM22">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AN22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO22">
         <v>-1</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AQ22">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="AR22">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="AS22">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="AT22">
-        <v>2.43</v>
+        <v>3.48</v>
       </c>
       <c r="AU22">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="AV22">
-        <v>2.8</v>
+        <v>2.23</v>
       </c>
       <c r="AW22">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AX22">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AY22">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AZ22">
         <v>0</v>
@@ -4684,10 +4684,10 @@
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="BC22">
-        <v>2.19</v>
+        <v>2.6</v>
       </c>
       <c r="BD22" s="3">
         <v>45803.61458333334</v>
@@ -4791,7 +4791,7 @@
         <v>2.52</v>
       </c>
       <c r="AG23">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AH23">
         <v>8.5</v>
@@ -4806,7 +4806,7 @@
         <v>189</v>
       </c>
       <c r="AL23">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AM23">
         <v>1.2</v>
@@ -4898,40 +4898,40 @@
         <v>187</v>
       </c>
       <c r="L24">
-        <v>2.02</v>
+        <v>6.02</v>
       </c>
       <c r="M24">
-        <v>3.55</v>
+        <v>4.98</v>
       </c>
       <c r="N24">
-        <v>3.2</v>
+        <v>1.37</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -4946,22 +4946,22 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -5024,10 +5024,10 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BD24" s="3">
         <v>45803.625</v>
@@ -5068,40 +5068,40 @@
         <v>187</v>
       </c>
       <c r="L25">
-        <v>2.76</v>
+        <v>3.06</v>
       </c>
       <c r="M25">
-        <v>3.39</v>
+        <v>3.51</v>
       </c>
       <c r="N25">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -5116,10 +5116,10 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AC25">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -5194,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BD25" s="3">
         <v>45803.625</v>
@@ -5247,31 +5247,31 @@
         <v>1.46</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AD26">
         <v>1.82</v>
@@ -5298,10 +5298,10 @@
         <v>1.89</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -5364,10 +5364,10 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BD26" s="3">
         <v>45803.625</v>
@@ -5408,76 +5408,76 @@
         <v>187</v>
       </c>
       <c r="L27">
-        <v>1.34</v>
+        <v>2.48</v>
       </c>
       <c r="M27">
-        <v>5.11</v>
+        <v>3.65</v>
       </c>
       <c r="N27">
-        <v>6.4</v>
+        <v>2.58</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AJ27" t="s">
         <v>189</v>
@@ -5486,46 +5486,46 @@
         <v>189</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO27">
         <v>-1</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AZ27">
         <v>0</v>
@@ -5534,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD27" s="3">
         <v>45803.625</v>
@@ -5578,40 +5578,40 @@
         <v>187</v>
       </c>
       <c r="L28">
-        <v>3.06</v>
+        <v>2.76</v>
       </c>
       <c r="M28">
-        <v>3.51</v>
+        <v>3.39</v>
       </c>
       <c r="N28">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -5626,10 +5626,10 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -5638,10 +5638,10 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -5704,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BD28" s="3">
         <v>45803.625</v>
@@ -5748,40 +5748,40 @@
         <v>187</v>
       </c>
       <c r="L29">
-        <v>3.52</v>
+        <v>2.02</v>
       </c>
       <c r="M29">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
       <c r="N29">
-        <v>1.89</v>
+        <v>3.2</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -5796,10 +5796,10 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AC29">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -5808,10 +5808,10 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -5874,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BC29">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BD29" s="3">
         <v>45803.625</v>
@@ -5918,76 +5918,76 @@
         <v>187</v>
       </c>
       <c r="L30">
-        <v>2.48</v>
+        <v>3.52</v>
       </c>
       <c r="M30">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="N30">
-        <v>2.58</v>
+        <v>1.89</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P30">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="R30">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S30">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="T30">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V30">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="W30">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="X30">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AC30">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AD30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AG30">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AH30">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="s">
         <v>189</v>
@@ -5996,46 +5996,46 @@
         <v>189</v>
       </c>
       <c r="AL30">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AM30">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO30">
         <v>-1</v>
       </c>
       <c r="AP30">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AR30">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="AU30">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AV30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW30">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AX30">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AY30">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AZ30">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BC30">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="BD30" s="3">
         <v>45803.625</v>
@@ -6088,40 +6088,40 @@
         <v>187</v>
       </c>
       <c r="L31">
-        <v>6.02</v>
+        <v>1.34</v>
       </c>
       <c r="M31">
-        <v>4.98</v>
+        <v>5.11</v>
       </c>
       <c r="N31">
-        <v>1.37</v>
+        <v>6.4</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -6136,22 +6136,22 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -6214,10 +6214,10 @@
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BC31">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BD31" s="3">
         <v>45803.625</v>
@@ -6267,31 +6267,31 @@
         <v>4.15</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -6306,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AD32">
         <v>2.05</v>
@@ -6318,10 +6318,10 @@
         <v>1.72</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH32">
         <v>0</v>
@@ -6384,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="BB32">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BC32">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BD32" s="3">
         <v>45803.625</v>
@@ -6786,19 +6786,19 @@
         <v>2.4</v>
       </c>
       <c r="R35">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S35">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T35">
-        <v>3.48</v>
+        <v>3.55</v>
       </c>
       <c r="U35">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V35">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="W35">
         <v>1</v>
@@ -6807,13 +6807,13 @@
         <v>1.1</v>
       </c>
       <c r="Y35">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="Z35">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AA35">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AB35">
         <v>2.3</v>
@@ -6825,16 +6825,16 @@
         <v>4.6</v>
       </c>
       <c r="AE35">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AF35">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="AG35">
         <v>1.7</v>
       </c>
       <c r="AH35">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AI35">
         <v>1.01</v>
@@ -6846,13 +6846,13 @@
         <v>189</v>
       </c>
       <c r="AL35">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AM35">
         <v>1.33</v>
       </c>
       <c r="AN35">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AO35">
         <v>-1</v>
@@ -6861,7 +6861,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ35">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AR35">
         <v>2.4</v>
@@ -6876,13 +6876,13 @@
         <v>2.3</v>
       </c>
       <c r="AV35">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AW35">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AX35">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AY35">
         <v>1.18</v>
@@ -6956,34 +6956,34 @@
         <v>2</v>
       </c>
       <c r="R36">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S36">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="T36">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="U36">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="V36">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="W36">
         <v>1.06</v>
       </c>
       <c r="X36">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Y36">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="Z36">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AA36">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AB36">
         <v>2</v>
@@ -6992,22 +6992,22 @@
         <v>1.67</v>
       </c>
       <c r="AD36">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AE36">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AF36">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AG36">
         <v>1.91</v>
       </c>
       <c r="AH36">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI36">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AJ36" t="s">
         <v>189</v>
@@ -7016,13 +7016,13 @@
         <v>189</v>
       </c>
       <c r="AL36">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AM36">
         <v>1.3</v>
       </c>
       <c r="AN36">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AO36">
         <v>-1</v>
@@ -7031,13 +7031,13 @@
         <v>1.36</v>
       </c>
       <c r="AQ36">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="AR36">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AS36">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AT36">
         <v>3.3</v>
@@ -7126,28 +7126,28 @@
         <v>2.4</v>
       </c>
       <c r="R37">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S37">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T37">
         <v>3.6</v>
       </c>
       <c r="U37">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="V37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W37">
         <v>1</v>
       </c>
       <c r="X37">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="Y37">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="Z37">
         <v>1.53</v>
@@ -7162,22 +7162,22 @@
         <v>1.49</v>
       </c>
       <c r="AD37">
-        <v>4.95</v>
+        <v>5.2</v>
       </c>
       <c r="AE37">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AF37">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AG37">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AH37">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AI37">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AJ37" t="s">
         <v>189</v>
@@ -7192,25 +7192,25 @@
         <v>1.38</v>
       </c>
       <c r="AN37">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AO37">
         <v>-1</v>
       </c>
       <c r="AP37">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ37">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AR37">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AS37">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AT37">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="AU37">
         <v>4.35</v>
@@ -7222,7 +7222,7 @@
         <v>2.2</v>
       </c>
       <c r="AX37">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AY37">
         <v>1.5</v>
@@ -7296,34 +7296,34 @@
         <v>2.6</v>
       </c>
       <c r="R38">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S38">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="U38">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="V38">
         <v>7.5</v>
       </c>
       <c r="W38">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="X38">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="Y38">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="Z38">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AA38">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AB38">
         <v>2.08</v>
@@ -7332,22 +7332,22 @@
         <v>1.66</v>
       </c>
       <c r="AD38">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="AE38">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF38">
         <v>2</v>
       </c>
       <c r="AG38">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AH38">
         <v>9</v>
       </c>
       <c r="AI38">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AJ38" t="s">
         <v>189</v>
@@ -7356,46 +7356,46 @@
         <v>189</v>
       </c>
       <c r="AL38">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AM38">
         <v>1.29</v>
       </c>
       <c r="AN38">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AO38">
         <v>-1</v>
       </c>
       <c r="AP38">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AQ38">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="AS38">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="AT38">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="AU38">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="AV38">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="AW38">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="AX38">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AY38">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AZ38">
         <v>0</v>
@@ -7466,34 +7466,34 @@
         <v>2.42</v>
       </c>
       <c r="R39">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="S39">
-        <v>2.48</v>
+        <v>2.13</v>
       </c>
       <c r="T39">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="U39">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="V39">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="W39">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="X39">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="Y39">
-        <v>5.55</v>
+        <v>6</v>
       </c>
       <c r="Z39">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AA39">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="AB39">
         <v>2.1</v>
@@ -7502,22 +7502,22 @@
         <v>1.6</v>
       </c>
       <c r="AD39">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AE39">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AF39">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AG39">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AH39">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI39">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AJ39" t="s">
         <v>189</v>
@@ -7526,46 +7526,46 @@
         <v>189</v>
       </c>
       <c r="AL39">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="AM39">
         <v>1.32</v>
       </c>
       <c r="AN39">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AO39">
         <v>-1</v>
       </c>
       <c r="AP39">
+        <v>1.33</v>
+      </c>
+      <c r="AQ39">
+        <v>1.56</v>
+      </c>
+      <c r="AR39">
+        <v>1.93</v>
+      </c>
+      <c r="AS39">
+        <v>2.4</v>
+      </c>
+      <c r="AT39">
+        <v>3.15</v>
+      </c>
+      <c r="AU39">
+        <v>2.95</v>
+      </c>
+      <c r="AV39">
+        <v>2.23</v>
+      </c>
+      <c r="AW39">
+        <v>1.77</v>
+      </c>
+      <c r="AX39">
+        <v>1.49</v>
+      </c>
+      <c r="AY39">
         <v>1.3</v>
-      </c>
-      <c r="AQ39">
-        <v>1.53</v>
-      </c>
-      <c r="AR39">
-        <v>1.89</v>
-      </c>
-      <c r="AS39">
-        <v>2.35</v>
-      </c>
-      <c r="AT39">
-        <v>3.05</v>
-      </c>
-      <c r="AU39">
-        <v>3.05</v>
-      </c>
-      <c r="AV39">
-        <v>2.3</v>
-      </c>
-      <c r="AW39">
-        <v>1.8</v>
-      </c>
-      <c r="AX39">
-        <v>1.5</v>
-      </c>
-      <c r="AY39">
-        <v>1.32</v>
       </c>
       <c r="AZ39">
         <v>0</v>
@@ -7636,10 +7636,10 @@
         <v>2.25</v>
       </c>
       <c r="R40">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="S40">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="T40">
         <v>3.25</v>
@@ -7648,22 +7648,22 @@
         <v>1.3</v>
       </c>
       <c r="V40">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W40">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="X40">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="Y40">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z40">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AA40">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="AB40">
         <v>2.2</v>
@@ -7672,22 +7672,22 @@
         <v>1.57</v>
       </c>
       <c r="AD40">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AE40">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AF40">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AG40">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AH40">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="AI40">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AJ40" t="s">
         <v>189</v>
@@ -7702,7 +7702,7 @@
         <v>1.33</v>
       </c>
       <c r="AN40">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AO40">
         <v>-1</v>
@@ -7714,16 +7714,16 @@
         <v>1.38</v>
       </c>
       <c r="AR40">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="AS40">
         <v>1.95</v>
       </c>
       <c r="AT40">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU40">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AV40">
         <v>2.9</v>
@@ -7732,7 +7732,7 @@
         <v>2.2</v>
       </c>
       <c r="AX40">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AY40">
         <v>1.5</v>
@@ -7806,31 +7806,31 @@
         <v>3.5</v>
       </c>
       <c r="R41">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S41">
         <v>3.2</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="U41">
         <v>1.45</v>
       </c>
       <c r="V41">
-        <v>5.75</v>
+        <v>5.55</v>
       </c>
       <c r="W41">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="X41">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="Y41">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z41">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AA41">
         <v>3.9</v>
@@ -7842,22 +7842,22 @@
         <v>2.1</v>
       </c>
       <c r="AD41">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AE41">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AF41">
         <v>1.85</v>
       </c>
       <c r="AG41">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AH41">
-        <v>5.05</v>
+        <v>4.95</v>
       </c>
       <c r="AI41">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AJ41" t="s">
         <v>189</v>
@@ -7866,25 +7866,25 @@
         <v>189</v>
       </c>
       <c r="AL41">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AM41">
         <v>1.21</v>
       </c>
       <c r="AN41">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AO41">
         <v>-1</v>
       </c>
       <c r="AP41">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AR41">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AS41">
         <v>1.8</v>
@@ -7893,19 +7893,19 @@
         <v>2.28</v>
       </c>
       <c r="AU41">
-        <v>4.5</v>
+        <v>4.85</v>
       </c>
       <c r="AV41">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AW41">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AX41">
         <v>1.91</v>
       </c>
       <c r="AY41">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AZ41">
         <v>0</v>
@@ -7958,25 +7958,25 @@
         <v>187</v>
       </c>
       <c r="L42">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="M42">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="N42">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R42">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S42">
         <v>1.97</v>
@@ -7994,16 +7994,16 @@
         <v>1.02</v>
       </c>
       <c r="X42">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="Y42">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="Z42">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AA42">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="AB42">
         <v>3.3</v>
@@ -8012,19 +8012,19 @@
         <v>1.28</v>
       </c>
       <c r="AD42">
-        <v>7.1</v>
+        <v>6.75</v>
       </c>
       <c r="AE42">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AF42">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="AG42">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AH42">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AI42">
         <v>1.02</v>
@@ -8036,13 +8036,13 @@
         <v>189</v>
       </c>
       <c r="AL42">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AM42">
         <v>0</v>
       </c>
       <c r="AN42">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AO42">
         <v>-1</v>
@@ -8051,31 +8051,31 @@
         <v>1.48</v>
       </c>
       <c r="AQ42">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="AR42">
         <v>2.33</v>
       </c>
       <c r="AS42">
-        <v>3.65</v>
+        <v>3.14</v>
       </c>
       <c r="AT42">
-        <v>4.9</v>
+        <v>4.35</v>
       </c>
       <c r="AU42">
         <v>2.54</v>
       </c>
       <c r="AV42">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AW42">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="AX42">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AY42">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AZ42">
         <v>0</v>
@@ -8084,10 +8084,10 @@
         <v>0</v>
       </c>
       <c r="BB42">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BC42">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BD42" s="3">
         <v>45803.84027777778</v>
@@ -8322,13 +8322,13 @@
         <v>2.25</v>
       </c>
       <c r="T44">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="U44">
         <v>1.25</v>
       </c>
       <c r="V44">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="W44">
         <v>1.02</v>
@@ -8337,7 +8337,7 @@
         <v>1.11</v>
       </c>
       <c r="Y44">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="Z44">
         <v>1.48</v>
@@ -8352,22 +8352,22 @@
         <v>1.52</v>
       </c>
       <c r="AD44">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="AE44">
         <v>1.14</v>
       </c>
       <c r="AF44">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AG44">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AH44">
         <v>13</v>
       </c>
       <c r="AI44">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AJ44" t="s">
         <v>189</v>
@@ -8382,40 +8382,40 @@
         <v>1.36</v>
       </c>
       <c r="AN44">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="AO44">
         <v>-1</v>
       </c>
       <c r="AP44">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AS44">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AT44">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="AU44">
-        <v>3.78</v>
+        <v>3.3</v>
       </c>
       <c r="AV44">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="AW44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AX44">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AY44">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AZ44">
         <v>0</v>

--- a/jogos_2025-05-26.xlsx
+++ b/jogos_2025-05-26.xlsx
@@ -271,18 +271,18 @@
     <t>Algeria Ligue 1</t>
   </si>
   <si>
+    <t>Turkey Süper Lig</t>
+  </si>
+  <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
+    <t>Norway Eliteserien</t>
+  </si>
+  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
-    <t>Norway Eliteserien</t>
-  </si>
-  <si>
-    <t>Turkey Süper Lig</t>
-  </si>
-  <si>
     <t>Austria Bundesliga</t>
   </si>
   <si>
@@ -337,42 +337,42 @@
     <t>AFC Wimbledon</t>
   </si>
   <si>
+    <t>Cherno More</t>
+  </si>
+  <si>
     <t>Ludogorets</t>
   </si>
   <si>
-    <t>Cherno More</t>
-  </si>
-  <si>
     <t>Mash'al</t>
   </si>
   <si>
     <t>US Biskra</t>
   </si>
   <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>Landskrona</t>
+  </si>
+  <si>
+    <t>KFUM</t>
+  </si>
+  <si>
+    <t>Umeå</t>
+  </si>
+  <si>
     <t>Norrköping</t>
   </si>
   <si>
     <t>Oddevold</t>
   </si>
   <si>
-    <t>KFUM</t>
-  </si>
-  <si>
-    <t>Landskrona</t>
+    <t>LASK Linz</t>
   </si>
   <si>
     <t>Brage</t>
   </si>
   <si>
-    <t>Hatayspor</t>
-  </si>
-  <si>
-    <t>LASK Linz</t>
-  </si>
-  <si>
-    <t>Umeå</t>
-  </si>
-  <si>
     <t>Hammarby</t>
   </si>
   <si>
@@ -385,33 +385,33 @@
     <t>BATE</t>
   </si>
   <si>
+    <t>Al Raed</t>
+  </si>
+  <si>
+    <t>Al Fateh</t>
+  </si>
+  <si>
+    <t>Al Ittihad</t>
+  </si>
+  <si>
+    <t>Al Feiha</t>
+  </si>
+  <si>
+    <t>Al Ittifaq</t>
+  </si>
+  <si>
+    <t>Al Orubah</t>
+  </si>
+  <si>
     <t>Al Riyadh</t>
   </si>
   <si>
-    <t>Al Raed</t>
-  </si>
-  <si>
-    <t>Al Fateh</t>
-  </si>
-  <si>
-    <t>Al Orubah</t>
+    <t>Al Hilal</t>
   </si>
   <si>
     <t>Al Khaleej</t>
   </si>
   <si>
-    <t>Al Ittifaq</t>
-  </si>
-  <si>
-    <t>Al Feiha</t>
-  </si>
-  <si>
-    <t>Al Ittihad</t>
-  </si>
-  <si>
-    <t>Al Hilal</t>
-  </si>
-  <si>
     <t>Frosinone</t>
   </si>
   <si>
@@ -421,18 +421,18 @@
     <t>Sportivo Ameliano</t>
   </si>
   <si>
+    <t>Criciúma</t>
+  </si>
+  <si>
     <t>Deportivo Recoleta</t>
   </si>
   <si>
-    <t>Criciúma</t>
+    <t>Brusque</t>
   </si>
   <si>
     <t>Guarani</t>
   </si>
   <si>
-    <t>Brusque</t>
-  </si>
-  <si>
     <t>Botafogo SP</t>
   </si>
   <si>
@@ -466,42 +466,42 @@
     <t>Walsall</t>
   </si>
   <si>
+    <t>Levski Sofia</t>
+  </si>
+  <si>
     <t>Arda</t>
   </si>
   <si>
-    <t>Levski Sofia</t>
-  </si>
-  <si>
     <t>Bunyodkor</t>
   </si>
   <si>
     <t>MC Oran</t>
   </si>
   <si>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
+    <t>Falkenberg</t>
+  </si>
+  <si>
+    <t>Vålerenga</t>
+  </si>
+  <si>
+    <t>Örgryte</t>
+  </si>
+  <si>
     <t>Mjällby</t>
   </si>
   <si>
     <t>Västerås SK</t>
   </si>
   <si>
-    <t>Vålerenga</t>
-  </si>
-  <si>
-    <t>Falkenberg</t>
+    <t>Hartberg</t>
   </si>
   <si>
     <t>Utsikten</t>
   </si>
   <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
-    <t>Hartberg</t>
-  </si>
-  <si>
-    <t>Örgryte</t>
-  </si>
-  <si>
     <t>Degerfors</t>
   </si>
   <si>
@@ -514,33 +514,33 @@
     <t>Smorgon</t>
   </si>
   <si>
+    <t>Al Kholood</t>
+  </si>
+  <si>
+    <t>Al Nassr</t>
+  </si>
+  <si>
+    <t>Dhamk</t>
+  </si>
+  <si>
+    <t>Al Shabab</t>
+  </si>
+  <si>
+    <t>Al Wahda</t>
+  </si>
+  <si>
+    <t>Al Taawon</t>
+  </si>
+  <si>
     <t>Al Ahli</t>
   </si>
   <si>
-    <t>Al Kholood</t>
-  </si>
-  <si>
-    <t>Al Nassr</t>
-  </si>
-  <si>
-    <t>Al Taawon</t>
+    <t>Al Quadisiya</t>
   </si>
   <si>
     <t>Al Akhdoud</t>
   </si>
   <si>
-    <t>Al Wahda</t>
-  </si>
-  <si>
-    <t>Al Shabab</t>
-  </si>
-  <si>
-    <t>Dhamk</t>
-  </si>
-  <si>
-    <t>Al Quadisiya</t>
-  </si>
-  <si>
     <t>Salernitana</t>
   </si>
   <si>
@@ -550,16 +550,16 @@
     <t>Atlético Tembetary</t>
   </si>
   <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
     <t>Sportivo Trinidense</t>
   </si>
   <si>
-    <t>Coritiba</t>
+    <t>São Bernardo</t>
   </si>
   <si>
     <t>Figueirense</t>
-  </si>
-  <si>
-    <t>São Bernardo</t>
   </si>
   <si>
     <t>CRB</t>
@@ -1498,76 +1498,76 @@
         <v>187</v>
       </c>
       <c r="L4">
-        <v>4.7</v>
+        <v>4.44</v>
       </c>
       <c r="M4">
+        <v>3.25</v>
+      </c>
+      <c r="N4">
+        <v>1.65</v>
+      </c>
+      <c r="O4">
         <v>3.5</v>
       </c>
-      <c r="N4">
-        <v>1.62</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AJ4" t="s">
         <v>189</v>
@@ -1576,13 +1576,13 @@
         <v>189</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AO4">
         <v>-1</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BD4" s="3">
         <v>45803.33333333334</v>
@@ -1865,10 +1865,10 @@
         <v>2.76</v>
       </c>
       <c r="U6">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V6">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="W6">
         <v>1.08</v>
@@ -1880,34 +1880,34 @@
         <v>9</v>
       </c>
       <c r="Z6">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AA6">
         <v>3.4</v>
       </c>
       <c r="AB6">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AC6">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AD6">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="AE6">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AF6">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AG6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH6">
-        <v>5.75</v>
+        <v>5.9</v>
       </c>
       <c r="AI6">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AJ6" t="s">
         <v>189</v>
@@ -1916,13 +1916,13 @@
         <v>189</v>
       </c>
       <c r="AL6">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM6">
         <v>1.31</v>
       </c>
       <c r="AN6">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AO6">
         <v>-1</v>
@@ -2178,73 +2178,73 @@
         <v>187</v>
       </c>
       <c r="L8">
-        <v>2.53</v>
+        <v>1.73</v>
       </c>
       <c r="M8">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="N8">
-        <v>2.36</v>
+        <v>4.5</v>
       </c>
       <c r="O8">
-        <v>2.25</v>
+        <v>1.59</v>
       </c>
       <c r="P8">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="Q8">
-        <v>1.81</v>
+        <v>2.75</v>
       </c>
       <c r="R8">
         <v>1.4</v>
       </c>
       <c r="S8">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U8">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="V8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W8">
+        <v>1.06</v>
+      </c>
+      <c r="X8">
         <v>1.08</v>
       </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
       <c r="Y8">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="Z8">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AA8">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AC8">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AD8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AE8">
         <v>1.25</v>
       </c>
       <c r="AF8">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AG8">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
       <c r="AH8">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AI8">
         <v>1.08</v>
@@ -2256,46 +2256,46 @@
         <v>189</v>
       </c>
       <c r="AL8">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM8">
         <v>1.28</v>
       </c>
       <c r="AN8">
-        <v>1.28</v>
+        <v>1.95</v>
       </c>
       <c r="AO8">
         <v>-1</v>
       </c>
       <c r="AP8">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AQ8">
+        <v>1.88</v>
+      </c>
+      <c r="AR8">
+        <v>2.48</v>
+      </c>
+      <c r="AS8">
+        <v>3.34</v>
+      </c>
+      <c r="AT8">
+        <v>4.9</v>
+      </c>
+      <c r="AU8">
+        <v>2.38</v>
+      </c>
+      <c r="AV8">
         <v>1.82</v>
       </c>
-      <c r="AR8">
-        <v>2.28</v>
-      </c>
-      <c r="AS8">
-        <v>2.92</v>
-      </c>
-      <c r="AT8">
-        <v>3.55</v>
-      </c>
-      <c r="AU8">
-        <v>2.65</v>
-      </c>
-      <c r="AV8">
-        <v>2.02</v>
-      </c>
       <c r="AW8">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AX8">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AY8">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>2.25</v>
+        <v>1.59</v>
       </c>
       <c r="BC8">
-        <v>1.81</v>
+        <v>2.75</v>
       </c>
       <c r="BD8" s="3">
         <v>45803.48958333334</v>
@@ -2348,76 +2348,76 @@
         <v>187</v>
       </c>
       <c r="L9">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>3.23</v>
+        <v>3.3</v>
       </c>
       <c r="N9">
-        <v>4.3</v>
+        <v>1.99</v>
       </c>
       <c r="O9">
-        <v>1.59</v>
+        <v>2.25</v>
       </c>
       <c r="P9">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q9">
-        <v>2.75</v>
+        <v>1.81</v>
       </c>
       <c r="R9">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="S9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T9">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="V9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W9">
         <v>1.06</v>
       </c>
       <c r="X9">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Y9">
         <v>8.5</v>
       </c>
       <c r="Z9">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AA9">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AC9">
         <v>1.67</v>
       </c>
       <c r="AD9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AE9">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF9">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AG9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AH9">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AI9">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AJ9" t="s">
         <v>189</v>
@@ -2426,46 +2426,46 @@
         <v>189</v>
       </c>
       <c r="AL9">
-        <v>1.17</v>
+        <v>1.69</v>
       </c>
       <c r="AM9">
         <v>1.28</v>
       </c>
       <c r="AN9">
-        <v>2.02</v>
+        <v>1.28</v>
       </c>
       <c r="AO9">
         <v>-1</v>
       </c>
       <c r="AP9">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AQ9">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AR9">
-        <v>2.49</v>
+        <v>2.65</v>
       </c>
       <c r="AS9">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="AT9">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="AU9">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="AV9">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AW9">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AX9">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AY9">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -2474,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>1.59</v>
+        <v>2.25</v>
       </c>
       <c r="BC9">
-        <v>2.75</v>
+        <v>1.81</v>
       </c>
       <c r="BD9" s="3">
         <v>45803.48958333334</v>
@@ -2834,7 +2834,7 @@
         <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
         <v>111</v>
@@ -2858,76 +2858,76 @@
         <v>187</v>
       </c>
       <c r="L12">
-        <v>2.67</v>
+        <v>9.59</v>
       </c>
       <c r="M12">
-        <v>3.32</v>
+        <v>7.03</v>
       </c>
       <c r="N12">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="O12">
+        <v>3.75</v>
+      </c>
+      <c r="P12">
+        <v>26</v>
+      </c>
+      <c r="Q12">
+        <v>1.25</v>
+      </c>
+      <c r="R12">
+        <v>1.14</v>
+      </c>
+      <c r="S12">
+        <v>5.5</v>
+      </c>
+      <c r="T12">
+        <v>1.67</v>
+      </c>
+      <c r="U12">
+        <v>2.1</v>
+      </c>
+      <c r="V12">
+        <v>3.25</v>
+      </c>
+      <c r="W12">
+        <v>1.33</v>
+      </c>
+      <c r="X12">
+        <v>1.01</v>
+      </c>
+      <c r="Y12">
+        <v>29</v>
+      </c>
+      <c r="Z12">
+        <v>1.06</v>
+      </c>
+      <c r="AA12">
+        <v>8.5</v>
+      </c>
+      <c r="AB12">
+        <v>1.22</v>
+      </c>
+      <c r="AC12">
+        <v>4.2</v>
+      </c>
+      <c r="AD12">
+        <v>1.61</v>
+      </c>
+      <c r="AE12">
+        <v>2.15</v>
+      </c>
+      <c r="AF12">
+        <v>1.53</v>
+      </c>
+      <c r="AG12">
         <v>2.38</v>
       </c>
-      <c r="P12">
-        <v>12.5</v>
-      </c>
-      <c r="Q12">
-        <v>1.62</v>
-      </c>
-      <c r="R12">
-        <v>1.3</v>
-      </c>
-      <c r="S12">
-        <v>3.4</v>
-      </c>
-      <c r="T12">
-        <v>2.5</v>
-      </c>
-      <c r="U12">
-        <v>1.5</v>
-      </c>
-      <c r="V12">
-        <v>6</v>
-      </c>
-      <c r="W12">
-        <v>1.13</v>
-      </c>
-      <c r="X12">
-        <v>1.04</v>
-      </c>
-      <c r="Y12">
-        <v>11</v>
-      </c>
-      <c r="Z12">
-        <v>1.2</v>
-      </c>
-      <c r="AA12">
-        <v>4.5</v>
-      </c>
-      <c r="AB12">
-        <v>1.55</v>
-      </c>
-      <c r="AC12">
-        <v>2.2</v>
-      </c>
-      <c r="AD12">
-        <v>2.55</v>
-      </c>
-      <c r="AE12">
-        <v>1.53</v>
-      </c>
-      <c r="AF12">
-        <v>1.62</v>
-      </c>
-      <c r="AG12">
-        <v>2.2</v>
-      </c>
       <c r="AH12">
-        <v>4.5</v>
+        <v>2.35</v>
       </c>
       <c r="AI12">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="AJ12" t="s">
         <v>189</v>
@@ -2936,46 +2936,46 @@
         <v>189</v>
       </c>
       <c r="AL12">
-        <v>1.57</v>
+        <v>3.8</v>
       </c>
       <c r="AM12">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AN12">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AO12">
         <v>-1</v>
       </c>
       <c r="AP12">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AU12">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="AV12">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="AW12">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AX12">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AY12">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AZ12">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="BC12">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="BD12" s="3">
         <v>45803.58333333334</v>
@@ -3028,76 +3028,76 @@
         <v>187</v>
       </c>
       <c r="L13">
-        <v>3.02</v>
+        <v>1.7</v>
       </c>
       <c r="M13">
-        <v>3.26</v>
+        <v>3.61</v>
       </c>
       <c r="N13">
-        <v>2.08</v>
+        <v>3.96</v>
       </c>
       <c r="O13">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="P13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q13">
-        <v>1.83</v>
+        <v>2.65</v>
       </c>
       <c r="R13">
+        <v>1.33</v>
+      </c>
+      <c r="S13">
+        <v>3.1</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
+        <v>1.48</v>
+      </c>
+      <c r="V13">
+        <v>6.35</v>
+      </c>
+      <c r="W13">
+        <v>1.06</v>
+      </c>
+      <c r="X13">
+        <v>1.05</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <v>1.25</v>
+      </c>
+      <c r="AA13">
+        <v>3.95</v>
+      </c>
+      <c r="AB13">
+        <v>1.74</v>
+      </c>
+      <c r="AC13">
+        <v>1.96</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
         <v>1.4</v>
       </c>
-      <c r="S13">
-        <v>2.75</v>
-      </c>
-      <c r="T13">
-        <v>2.88</v>
-      </c>
-      <c r="U13">
-        <v>1.36</v>
-      </c>
-      <c r="V13">
-        <v>7.6</v>
-      </c>
-      <c r="W13">
-        <v>1.03</v>
-      </c>
-      <c r="X13">
-        <v>1.06</v>
-      </c>
-      <c r="Y13">
-        <v>9</v>
-      </c>
-      <c r="Z13">
-        <v>1.33</v>
-      </c>
-      <c r="AA13">
-        <v>3.35</v>
-      </c>
-      <c r="AB13">
-        <v>1.95</v>
-      </c>
-      <c r="AC13">
-        <v>1.75</v>
-      </c>
-      <c r="AD13">
-        <v>3.65</v>
-      </c>
-      <c r="AE13">
-        <v>1.28</v>
-      </c>
       <c r="AF13">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AG13">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AH13">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="AI13">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AJ13" t="s">
         <v>189</v>
@@ -3106,13 +3106,13 @@
         <v>189</v>
       </c>
       <c r="AL13">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AM13">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AN13">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="AO13">
         <v>-1</v>
@@ -3127,7 +3127,7 @@
         <v>1.58</v>
       </c>
       <c r="AS13">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="AT13">
         <v>2.4</v>
@@ -3136,7 +3136,7 @@
         <v>3.95</v>
       </c>
       <c r="AV13">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AW13">
         <v>2.18</v>
@@ -3154,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="BC13">
-        <v>1.83</v>
+        <v>2.65</v>
       </c>
       <c r="BD13" s="3">
         <v>45803.58333333334</v>
@@ -3368,124 +3368,124 @@
         <v>187</v>
       </c>
       <c r="L15">
-        <v>1.7</v>
+        <v>2.68</v>
       </c>
       <c r="M15">
-        <v>3.61</v>
+        <v>3.45</v>
       </c>
       <c r="N15">
-        <v>3.96</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="P15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q15">
-        <v>2.65</v>
+        <v>1.8</v>
       </c>
       <c r="R15">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S15">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="U15">
         <v>1.48</v>
       </c>
       <c r="V15">
-        <v>6.35</v>
+        <v>5.75</v>
       </c>
       <c r="W15">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X15">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z15">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AA15">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AB15">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="AC15">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="AD15">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AE15">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AF15">
+        <v>1.57</v>
+      </c>
+      <c r="AG15">
+        <v>2.2</v>
+      </c>
+      <c r="AH15">
+        <v>5.25</v>
+      </c>
+      <c r="AI15">
+        <v>1.17</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL15">
         <v>1.7</v>
       </c>
-      <c r="AG15">
-        <v>2</v>
-      </c>
-      <c r="AH15">
-        <v>5.75</v>
-      </c>
-      <c r="AI15">
-        <v>1.14</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL15">
-        <v>1.2</v>
-      </c>
       <c r="AM15">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="AO15">
         <v>-1</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AQ15">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AR15">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AS15">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AT15">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="AU15">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="AV15">
         <v>2.8</v>
       </c>
       <c r="AW15">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AX15">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AY15">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="BC15">
-        <v>2.65</v>
+        <v>1.8</v>
       </c>
       <c r="BD15" s="3">
         <v>45803.58333333334</v>
@@ -3511,7 +3511,7 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>99</v>
@@ -3538,76 +3538,76 @@
         <v>187</v>
       </c>
       <c r="L16">
-        <v>1.75</v>
+        <v>2.67</v>
       </c>
       <c r="M16">
-        <v>3.51</v>
+        <v>3.32</v>
       </c>
       <c r="N16">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
+        <v>2.38</v>
+      </c>
+      <c r="P16">
+        <v>12.5</v>
+      </c>
+      <c r="Q16">
         <v>1.62</v>
       </c>
-      <c r="P16">
-        <v>10</v>
-      </c>
-      <c r="Q16">
-        <v>2.62</v>
-      </c>
       <c r="R16">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="S16">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="T16">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="V16">
-        <v>6.55</v>
+        <v>6</v>
       </c>
       <c r="W16">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="X16">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Y16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AA16">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="AB16">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AC16">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="AD16">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="AE16">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AF16">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AG16">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="AH16">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AI16">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AJ16" t="s">
         <v>189</v>
@@ -3616,46 +3616,46 @@
         <v>189</v>
       </c>
       <c r="AL16">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="AM16">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AN16">
-        <v>1.95</v>
+        <v>1.43</v>
       </c>
       <c r="AO16">
         <v>-1</v>
       </c>
       <c r="AP16">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ16">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR16">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AS16">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AT16">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="AU16">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AV16">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AW16">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AX16">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AY16">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AZ16">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="BB16">
+        <v>2.38</v>
+      </c>
+      <c r="BC16">
         <v>1.62</v>
-      </c>
-      <c r="BC16">
-        <v>2.62</v>
       </c>
       <c r="BD16" s="3">
         <v>45803.58333333334</v>
@@ -3681,10 +3681,10 @@
         <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
         <v>116</v>
@@ -3708,124 +3708,124 @@
         <v>187</v>
       </c>
       <c r="L17">
-        <v>9.59</v>
+        <v>3.02</v>
       </c>
       <c r="M17">
-        <v>7.03</v>
+        <v>3.26</v>
       </c>
       <c r="N17">
-        <v>1.2</v>
+        <v>2.08</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="P17">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Q17">
+        <v>1.83</v>
+      </c>
+      <c r="R17">
+        <v>1.4</v>
+      </c>
+      <c r="S17">
+        <v>2.75</v>
+      </c>
+      <c r="T17">
+        <v>2.88</v>
+      </c>
+      <c r="U17">
+        <v>1.36</v>
+      </c>
+      <c r="V17">
+        <v>7.6</v>
+      </c>
+      <c r="W17">
+        <v>1.03</v>
+      </c>
+      <c r="X17">
+        <v>1.06</v>
+      </c>
+      <c r="Y17">
+        <v>9</v>
+      </c>
+      <c r="Z17">
+        <v>1.33</v>
+      </c>
+      <c r="AA17">
+        <v>3.35</v>
+      </c>
+      <c r="AB17">
+        <v>1.95</v>
+      </c>
+      <c r="AC17">
+        <v>1.75</v>
+      </c>
+      <c r="AD17">
+        <v>3.65</v>
+      </c>
+      <c r="AE17">
+        <v>1.28</v>
+      </c>
+      <c r="AF17">
+        <v>1.77</v>
+      </c>
+      <c r="AG17">
+        <v>1.91</v>
+      </c>
+      <c r="AH17">
+        <v>7</v>
+      </c>
+      <c r="AI17">
+        <v>1.1</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL17">
+        <v>1.67</v>
+      </c>
+      <c r="AM17">
         <v>1.25</v>
       </c>
-      <c r="R17">
-        <v>1.14</v>
-      </c>
-      <c r="S17">
-        <v>5.5</v>
-      </c>
-      <c r="T17">
-        <v>1.67</v>
-      </c>
-      <c r="U17">
-        <v>2.1</v>
-      </c>
-      <c r="V17">
-        <v>3.25</v>
-      </c>
-      <c r="W17">
-        <v>1.33</v>
-      </c>
-      <c r="X17">
-        <v>1.01</v>
-      </c>
-      <c r="Y17">
-        <v>29</v>
-      </c>
-      <c r="Z17">
-        <v>1.06</v>
-      </c>
-      <c r="AA17">
-        <v>8.5</v>
-      </c>
-      <c r="AB17">
-        <v>1.22</v>
-      </c>
-      <c r="AC17">
-        <v>4.2</v>
-      </c>
-      <c r="AD17">
-        <v>1.61</v>
-      </c>
-      <c r="AE17">
-        <v>2.15</v>
-      </c>
-      <c r="AF17">
-        <v>1.53</v>
-      </c>
-      <c r="AG17">
-        <v>2.38</v>
-      </c>
-      <c r="AH17">
-        <v>2.35</v>
-      </c>
-      <c r="AI17">
-        <v>1.57</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL17">
-        <v>3.8</v>
-      </c>
-      <c r="AM17">
-        <v>1.11</v>
-      </c>
       <c r="AN17">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="AO17">
         <v>-1</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AU17">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AV17">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AW17">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AX17">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AY17">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AZ17">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="BC17">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="BD17" s="3">
         <v>45803.58333333334</v>
@@ -3878,13 +3878,13 @@
         <v>187</v>
       </c>
       <c r="L18">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="M18">
-        <v>3.77</v>
+        <v>3.53</v>
       </c>
       <c r="N18">
-        <v>4.31</v>
+        <v>4</v>
       </c>
       <c r="O18">
         <v>1.58</v>
@@ -3926,10 +3926,10 @@
         <v>3.7</v>
       </c>
       <c r="AB18">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AC18">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="AD18">
         <v>3</v>
@@ -4048,124 +4048,124 @@
         <v>187</v>
       </c>
       <c r="L19">
-        <v>2.68</v>
+        <v>1.75</v>
       </c>
       <c r="M19">
-        <v>3.45</v>
+        <v>3.51</v>
       </c>
       <c r="N19">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="O19">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="P19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q19">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="R19">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S19">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="T19">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="U19">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="V19">
-        <v>5.75</v>
+        <v>6.55</v>
       </c>
       <c r="W19">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="X19">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Y19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z19">
+        <v>1.28</v>
+      </c>
+      <c r="AA19">
+        <v>3.65</v>
+      </c>
+      <c r="AB19">
+        <v>1.82</v>
+      </c>
+      <c r="AC19">
+        <v>1.88</v>
+      </c>
+      <c r="AD19">
+        <v>3.25</v>
+      </c>
+      <c r="AE19">
+        <v>1.35</v>
+      </c>
+      <c r="AF19">
+        <v>1.75</v>
+      </c>
+      <c r="AG19">
+        <v>1.93</v>
+      </c>
+      <c r="AH19">
+        <v>6.5</v>
+      </c>
+      <c r="AI19">
+        <v>1.11</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL19">
         <v>1.22</v>
-      </c>
-      <c r="AA19">
-        <v>4.2</v>
-      </c>
-      <c r="AB19">
-        <v>1.61</v>
-      </c>
-      <c r="AC19">
-        <v>2.05</v>
-      </c>
-      <c r="AD19">
-        <v>2.8</v>
-      </c>
-      <c r="AE19">
-        <v>1.44</v>
-      </c>
-      <c r="AF19">
-        <v>1.57</v>
-      </c>
-      <c r="AG19">
-        <v>2.2</v>
-      </c>
-      <c r="AH19">
-        <v>5.25</v>
-      </c>
-      <c r="AI19">
-        <v>1.17</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL19">
-        <v>1.7</v>
       </c>
       <c r="AM19">
         <v>1.22</v>
       </c>
       <c r="AN19">
-        <v>1.35</v>
+        <v>1.95</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AQ19">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AR19">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AS19">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="AT19">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="AU19">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AV19">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AW19">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AX19">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AY19">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -4174,10 +4174,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="BC19">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="BD19" s="3">
         <v>45803.58333333334</v>
@@ -4191,7 +4191,7 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
         <v>99</v>
@@ -4388,13 +4388,13 @@
         <v>187</v>
       </c>
       <c r="L21">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>3.11</v>
+        <v>3.29</v>
       </c>
       <c r="N21">
-        <v>3.06</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>1.74</v>
@@ -4409,16 +4409,16 @@
         <v>1.28</v>
       </c>
       <c r="S21">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T21">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="V21">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="W21">
         <v>1.12</v>
@@ -4427,19 +4427,19 @@
         <v>1.02</v>
       </c>
       <c r="Y21">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z21">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AA21">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AB21">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AC21">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AD21">
         <v>2.79</v>
@@ -4448,16 +4448,16 @@
         <v>1.36</v>
       </c>
       <c r="AF21">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AG21">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="AH21">
         <v>5.05</v>
       </c>
       <c r="AI21">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AJ21" t="s">
         <v>189</v>
@@ -4472,40 +4472,40 @@
         <v>1.28</v>
       </c>
       <c r="AN21">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AO21">
         <v>-1</v>
       </c>
       <c r="AP21">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ21">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AR21">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AS21">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AT21">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="AU21">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="AV21">
-        <v>2.8</v>
+        <v>2.43</v>
       </c>
       <c r="AW21">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AX21">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="AY21">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -4558,13 +4558,13 @@
         <v>187</v>
       </c>
       <c r="L22">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="M22">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O22">
         <v>1.54</v>
@@ -4585,13 +4585,13 @@
         <v>2.57</v>
       </c>
       <c r="U22">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="V22">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="W22">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="X22">
         <v>1.02</v>
@@ -4600,34 +4600,34 @@
         <v>8.1</v>
       </c>
       <c r="Z22">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AA22">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="AB22">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AC22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AD22">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="AE22">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AF22">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AG22">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AH22">
-        <v>5.65</v>
+        <v>5</v>
       </c>
       <c r="AI22">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AJ22" t="s">
         <v>189</v>
@@ -4636,7 +4636,7 @@
         <v>189</v>
       </c>
       <c r="AL22">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AM22">
         <v>1.25</v>
@@ -4654,7 +4654,7 @@
         <v>1.62</v>
       </c>
       <c r="AR22">
-        <v>2.34</v>
+        <v>1.79</v>
       </c>
       <c r="AS22">
         <v>2.57</v>
@@ -4663,10 +4663,10 @@
         <v>3.48</v>
       </c>
       <c r="AU22">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="AV22">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="AW22">
         <v>1.75</v>
@@ -4764,7 +4764,7 @@
         <v>1.01</v>
       </c>
       <c r="X23">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>9</v>
@@ -4794,7 +4794,7 @@
         <v>1.5</v>
       </c>
       <c r="AH23">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AI23">
         <v>1.01</v>
@@ -4806,7 +4806,7 @@
         <v>189</v>
       </c>
       <c r="AL23">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AM23">
         <v>1.2</v>
@@ -4898,40 +4898,40 @@
         <v>187</v>
       </c>
       <c r="L24">
-        <v>6.02</v>
+        <v>3.06</v>
       </c>
       <c r="M24">
-        <v>4.98</v>
+        <v>3.51</v>
       </c>
       <c r="N24">
-        <v>1.37</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="R24">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="V24">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="W24">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -4946,22 +4946,22 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AC24">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="AD24">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AG24">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -5024,10 +5024,10 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="BC24">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="BD24" s="3">
         <v>45803.625</v>
@@ -5068,40 +5068,40 @@
         <v>187</v>
       </c>
       <c r="L25">
-        <v>3.06</v>
+        <v>4.89</v>
       </c>
       <c r="M25">
-        <v>3.51</v>
+        <v>4.77</v>
       </c>
       <c r="N25">
-        <v>2.1</v>
+        <v>1.46</v>
       </c>
       <c r="O25">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="R25">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="S25">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="U25">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="V25">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="W25">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -5116,22 +5116,22 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="AC25">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AF25">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AG25">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -5194,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="BC25">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="BD25" s="3">
         <v>45803.625</v>
@@ -5238,40 +5238,40 @@
         <v>187</v>
       </c>
       <c r="L26">
-        <v>4.89</v>
+        <v>1.34</v>
       </c>
       <c r="M26">
-        <v>4.77</v>
+        <v>5.11</v>
       </c>
       <c r="N26">
-        <v>1.46</v>
+        <v>6.4</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>1.36</v>
+        <v>3.4</v>
       </c>
       <c r="R26">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="S26">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T26">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="U26">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V26">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="W26">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -5286,22 +5286,22 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AC26">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AD26">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="AE26">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AF26">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AG26">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -5364,10 +5364,10 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="BC26">
-        <v>1.36</v>
+        <v>3.4</v>
       </c>
       <c r="BD26" s="3">
         <v>45803.625</v>
@@ -5408,76 +5408,76 @@
         <v>187</v>
       </c>
       <c r="L27">
-        <v>2.48</v>
+        <v>3.52</v>
       </c>
       <c r="M27">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="N27">
-        <v>2.58</v>
+        <v>1.89</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P27">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="R27">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S27">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="T27">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V27">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="W27">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="X27">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AC27">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AD27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AG27">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AH27">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="s">
         <v>189</v>
@@ -5486,46 +5486,46 @@
         <v>189</v>
       </c>
       <c r="AL27">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AM27">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>-1</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AR27">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="AU27">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AV27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW27">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AX27">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AY27">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AZ27">
         <v>0</v>
@@ -5534,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BC27">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="BD27" s="3">
         <v>45803.625</v>
@@ -5578,40 +5578,40 @@
         <v>187</v>
       </c>
       <c r="L28">
-        <v>2.76</v>
+        <v>2.02</v>
       </c>
       <c r="M28">
-        <v>3.39</v>
+        <v>3.55</v>
       </c>
       <c r="N28">
-        <v>2.32</v>
+        <v>3.2</v>
       </c>
       <c r="O28">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="R28">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="V28">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="W28">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -5626,10 +5626,10 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="AC28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -5638,10 +5638,10 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AG28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -5704,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="BC28">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="BD28" s="3">
         <v>45803.625</v>
@@ -5748,76 +5748,76 @@
         <v>187</v>
       </c>
       <c r="L29">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="M29">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="N29">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="O29">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R29">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="S29">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="U29">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V29">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="W29">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AB29">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AC29">
         <v>2</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF29">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AG29">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AJ29" t="s">
         <v>189</v>
@@ -5826,46 +5826,46 @@
         <v>189</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO29">
         <v>-1</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW29">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AY29">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AZ29">
         <v>0</v>
@@ -5874,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="BC29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BD29" s="3">
         <v>45803.625</v>
@@ -5918,40 +5918,40 @@
         <v>187</v>
       </c>
       <c r="L30">
-        <v>3.52</v>
+        <v>6.02</v>
       </c>
       <c r="M30">
-        <v>3.62</v>
+        <v>4.98</v>
       </c>
       <c r="N30">
-        <v>1.89</v>
+        <v>1.37</v>
       </c>
       <c r="O30">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="R30">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="S30">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V30">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="W30">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -5966,22 +5966,22 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="AC30">
-        <v>1.98</v>
+        <v>2.63</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF30">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AG30">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AH30">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="BC30">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="BD30" s="3">
         <v>45803.625</v>
@@ -6088,22 +6088,22 @@
         <v>187</v>
       </c>
       <c r="L31">
-        <v>1.34</v>
+        <v>1.64</v>
       </c>
       <c r="M31">
-        <v>5.11</v>
+        <v>4.11</v>
       </c>
       <c r="N31">
-        <v>6.4</v>
+        <v>4.15</v>
       </c>
       <c r="O31">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="R31">
         <v>1.22</v>
@@ -6142,16 +6142,16 @@
         <v>2.63</v>
       </c>
       <c r="AD31">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AE31">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="AF31">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AG31">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -6214,10 +6214,10 @@
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BC31">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="BD31" s="3">
         <v>45803.625</v>
@@ -6258,40 +6258,40 @@
         <v>187</v>
       </c>
       <c r="L32">
-        <v>1.64</v>
+        <v>2.76</v>
       </c>
       <c r="M32">
-        <v>4.11</v>
+        <v>3.39</v>
       </c>
       <c r="N32">
-        <v>4.15</v>
+        <v>2.32</v>
       </c>
       <c r="O32">
+        <v>2.2</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1.73</v>
+      </c>
+      <c r="R32">
+        <v>1.36</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>2.75</v>
+      </c>
+      <c r="U32">
         <v>1.4</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>2.88</v>
-      </c>
-      <c r="R32">
-        <v>1.22</v>
-      </c>
-      <c r="S32">
-        <v>4</v>
-      </c>
-      <c r="T32">
-        <v>2.1</v>
-      </c>
-      <c r="U32">
-        <v>1.67</v>
-      </c>
       <c r="V32">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="W32">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -6306,22 +6306,22 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="AC32">
-        <v>2.63</v>
+        <v>1.9</v>
       </c>
       <c r="AD32">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AG32">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="AH32">
         <v>0</v>
@@ -6384,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="BB32">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="BC32">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="BD32" s="3">
         <v>45803.625</v>
@@ -6598,76 +6598,76 @@
         <v>187</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AJ34" t="s">
         <v>189</v>
@@ -6676,13 +6676,13 @@
         <v>189</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AM34">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AO34">
         <v>-1</v>
@@ -6724,10 +6724,10 @@
         <v>0</v>
       </c>
       <c r="BB34">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BC34">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="BD34" s="3">
         <v>45803.66666666666</v>
@@ -6786,7 +6786,7 @@
         <v>2.4</v>
       </c>
       <c r="R35">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S35">
         <v>2.38</v>
@@ -6795,7 +6795,7 @@
         <v>3.55</v>
       </c>
       <c r="U35">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="V35">
         <v>10.5</v>
@@ -6804,31 +6804,31 @@
         <v>1</v>
       </c>
       <c r="X35">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Y35">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z35">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AA35">
         <v>2.5</v>
       </c>
       <c r="AB35">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AC35">
         <v>1.5</v>
       </c>
       <c r="AD35">
-        <v>4.6</v>
+        <v>4.92</v>
       </c>
       <c r="AE35">
         <v>1.15</v>
       </c>
       <c r="AF35">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="AG35">
         <v>1.7</v>
@@ -6846,31 +6846,31 @@
         <v>189</v>
       </c>
       <c r="AL35">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AM35">
         <v>1.33</v>
       </c>
       <c r="AN35">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AO35">
         <v>-1</v>
       </c>
       <c r="AP35">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ35">
         <v>1.91</v>
       </c>
       <c r="AR35">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="AS35">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="AT35">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="AU35">
         <v>2.3</v>
@@ -6879,13 +6879,13 @@
         <v>1.8</v>
       </c>
       <c r="AW35">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AX35">
         <v>1.3</v>
       </c>
       <c r="AY35">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AZ35">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
         <v>99</v>
@@ -6938,76 +6938,76 @@
         <v>187</v>
       </c>
       <c r="L36">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="M36">
-        <v>3.04</v>
+        <v>2.95</v>
       </c>
       <c r="N36">
-        <v>2.3</v>
+        <v>2.73</v>
       </c>
       <c r="O36">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P36">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="R36">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S36">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="T36">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="U36">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="V36">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="W36">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="X36">
         <v>1.05</v>
       </c>
       <c r="Y36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z36">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AA36">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AB36">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="AC36">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="AD36">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AE36">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AF36">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="AG36">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AH36">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AI36">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AJ36" t="s">
         <v>189</v>
@@ -7016,46 +7016,46 @@
         <v>189</v>
       </c>
       <c r="AL36">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AM36">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AN36">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AO36">
         <v>-1</v>
       </c>
       <c r="AP36">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
-        <v>2.01</v>
+        <v>1.57</v>
       </c>
       <c r="AS36">
-        <v>2.65</v>
+        <v>1.82</v>
       </c>
       <c r="AT36">
-        <v>3.3</v>
+        <v>2.34</v>
       </c>
       <c r="AU36">
-        <v>2.88</v>
+        <v>4.35</v>
       </c>
       <c r="AV36">
-        <v>2.12</v>
+        <v>3.4</v>
       </c>
       <c r="AW36">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="AX36">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="AY36">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AZ36">
         <v>0</v>
@@ -7064,10 +7064,10 @@
         <v>0</v>
       </c>
       <c r="BB36">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="BC36">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="BD36" s="3">
         <v>45803.79166666666</v>
@@ -7081,7 +7081,7 @@
         <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
         <v>99</v>
@@ -7108,76 +7108,76 @@
         <v>187</v>
       </c>
       <c r="L37">
-        <v>2.41</v>
+        <v>2.88</v>
       </c>
       <c r="M37">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="N37">
-        <v>2.73</v>
+        <v>2.25</v>
       </c>
       <c r="O37">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P37">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Q37">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="R37">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="S37">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="T37">
+        <v>3.1</v>
+      </c>
+      <c r="U37">
+        <v>1.35</v>
+      </c>
+      <c r="V37">
+        <v>8</v>
+      </c>
+      <c r="W37">
+        <v>1.07</v>
+      </c>
+      <c r="X37">
+        <v>1.05</v>
+      </c>
+      <c r="Y37">
+        <v>8</v>
+      </c>
+      <c r="Z37">
+        <v>1.33</v>
+      </c>
+      <c r="AA37">
+        <v>3</v>
+      </c>
+      <c r="AB37">
+        <v>2.09</v>
+      </c>
+      <c r="AC37">
+        <v>1.67</v>
+      </c>
+      <c r="AD37">
         <v>3.6</v>
       </c>
-      <c r="U37">
+      <c r="AE37">
         <v>1.25</v>
       </c>
-      <c r="V37">
-        <v>11</v>
-      </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="X37">
-        <v>1.11</v>
-      </c>
-      <c r="Y37">
-        <v>6</v>
-      </c>
-      <c r="Z37">
-        <v>1.53</v>
-      </c>
-      <c r="AA37">
-        <v>2.25</v>
-      </c>
-      <c r="AB37">
-        <v>2.34</v>
-      </c>
-      <c r="AC37">
-        <v>1.49</v>
-      </c>
-      <c r="AD37">
-        <v>5.2</v>
-      </c>
-      <c r="AE37">
-        <v>1.15</v>
-      </c>
       <c r="AF37">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="AG37">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AH37">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI37">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AJ37" t="s">
         <v>189</v>
@@ -7189,43 +7189,43 @@
         <v>1.33</v>
       </c>
       <c r="AM37">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AN37">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AO37">
         <v>-1</v>
       </c>
       <c r="AP37">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AQ37">
-        <v>1.26</v>
+        <v>1.65</v>
       </c>
       <c r="AR37">
-        <v>1.58</v>
+        <v>2.01</v>
       </c>
       <c r="AS37">
-        <v>1.91</v>
+        <v>2.65</v>
       </c>
       <c r="AT37">
-        <v>2.34</v>
+        <v>3.55</v>
       </c>
       <c r="AU37">
-        <v>4.35</v>
+        <v>2.88</v>
       </c>
       <c r="AV37">
-        <v>2.88</v>
+        <v>2.12</v>
       </c>
       <c r="AW37">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="AX37">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="AY37">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -7234,10 +7234,10 @@
         <v>0</v>
       </c>
       <c r="BB37">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="BC37">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="BD37" s="3">
         <v>45803.79166666666</v>
@@ -7278,28 +7278,28 @@
         <v>187</v>
       </c>
       <c r="L38">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="M38">
-        <v>3.31</v>
+        <v>2.65</v>
       </c>
       <c r="N38">
-        <v>3.88</v>
+        <v>3.19</v>
       </c>
       <c r="O38">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="P38">
-        <v>6.8</v>
+        <v>5.55</v>
       </c>
       <c r="Q38">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="R38">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S38">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="T38">
         <v>3.3</v>
@@ -7308,46 +7308,46 @@
         <v>1.29</v>
       </c>
       <c r="V38">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="W38">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="X38">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="Y38">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="Z38">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AA38">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AB38">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="AC38">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AD38">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="AE38">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF38">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AG38">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AH38">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI38">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AJ38" t="s">
         <v>189</v>
@@ -7356,46 +7356,46 @@
         <v>189</v>
       </c>
       <c r="AL38">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AM38">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AN38">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="AO38">
         <v>-1</v>
       </c>
       <c r="AP38">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AR38">
-        <v>1.53</v>
+        <v>2.4</v>
       </c>
       <c r="AS38">
-        <v>1.84</v>
+        <v>2.4</v>
       </c>
       <c r="AT38">
-        <v>2.25</v>
+        <v>3.45</v>
       </c>
       <c r="AU38">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="AV38">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="AW38">
-        <v>2.3</v>
+        <v>1.77</v>
       </c>
       <c r="AX38">
-        <v>1.84</v>
+        <v>1.49</v>
       </c>
       <c r="AY38">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="AZ38">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="BB38">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="BC38">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="BD38" s="3">
         <v>45803.8125</v>
@@ -7448,73 +7448,73 @@
         <v>187</v>
       </c>
       <c r="L39">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="M39">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="N39">
-        <v>3.06</v>
+        <v>3.5</v>
       </c>
       <c r="O39">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="P39">
-        <v>5.55</v>
+        <v>6.8</v>
       </c>
       <c r="Q39">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="R39">
         <v>1.53</v>
       </c>
       <c r="S39">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="T39">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="U39">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="V39">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="W39">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="X39">
         <v>1.09</v>
       </c>
       <c r="Y39">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="Z39">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AA39">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="AB39">
-        <v>2.1</v>
+        <v>2.39</v>
       </c>
       <c r="AC39">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD39">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="AE39">
         <v>1.18</v>
       </c>
       <c r="AF39">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AG39">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AH39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI39">
         <v>1.03</v>
@@ -7526,46 +7526,46 @@
         <v>189</v>
       </c>
       <c r="AL39">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AM39">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AN39">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AO39">
         <v>-1</v>
       </c>
       <c r="AP39">
+        <v>1.19</v>
+      </c>
+      <c r="AQ39">
         <v>1.33</v>
       </c>
-      <c r="AQ39">
-        <v>1.56</v>
-      </c>
       <c r="AR39">
-        <v>1.93</v>
+        <v>1.55</v>
       </c>
       <c r="AS39">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="AT39">
-        <v>3.15</v>
+        <v>2.25</v>
       </c>
       <c r="AU39">
+        <v>4.1</v>
+      </c>
+      <c r="AV39">
         <v>2.95</v>
       </c>
-      <c r="AV39">
-        <v>2.23</v>
-      </c>
       <c r="AW39">
-        <v>1.77</v>
+        <v>2.55</v>
       </c>
       <c r="AX39">
-        <v>1.49</v>
+        <v>1.84</v>
       </c>
       <c r="AY39">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="AZ39">
         <v>0</v>
@@ -7574,10 +7574,10 @@
         <v>0</v>
       </c>
       <c r="BB39">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="BC39">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="BD39" s="3">
         <v>45803.8125</v>
@@ -7636,22 +7636,22 @@
         <v>2.25</v>
       </c>
       <c r="R40">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S40">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U40">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V40">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="W40">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="X40">
         <v>1.08</v>
@@ -7660,10 +7660,10 @@
         <v>6.5</v>
       </c>
       <c r="Z40">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA40">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AB40">
         <v>2.2</v>
@@ -7681,10 +7681,10 @@
         <v>2</v>
       </c>
       <c r="AG40">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AH40">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="AI40">
         <v>1</v>
@@ -7702,7 +7702,7 @@
         <v>1.33</v>
       </c>
       <c r="AN40">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AO40">
         <v>-1</v>
@@ -7717,22 +7717,22 @@
         <v>1.74</v>
       </c>
       <c r="AS40">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="AT40">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AU40">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AV40">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AW40">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="AX40">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="AY40">
         <v>1.5</v>
@@ -7788,13 +7788,13 @@
         <v>187</v>
       </c>
       <c r="L41">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="N41">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O41">
         <v>1.36</v>
@@ -7815,31 +7815,31 @@
         <v>2.45</v>
       </c>
       <c r="U41">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="V41">
-        <v>5.55</v>
+        <v>6</v>
       </c>
       <c r="W41">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X41">
         <v>1.04</v>
       </c>
       <c r="Y41">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z41">
         <v>1.21</v>
       </c>
       <c r="AA41">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AB41">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AC41">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AD41">
         <v>2.8</v>
@@ -7851,10 +7851,10 @@
         <v>1.85</v>
       </c>
       <c r="AG41">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AH41">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="AI41">
         <v>1.14</v>
@@ -7878,10 +7878,10 @@
         <v>-1</v>
       </c>
       <c r="AP41">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AQ41">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -7902,10 +7902,10 @@
         <v>2.5</v>
       </c>
       <c r="AX41">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AY41">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AZ41">
         <v>0</v>
@@ -7976,16 +7976,16 @@
         <v>2.6</v>
       </c>
       <c r="R42">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S42">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="T42">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="U42">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="V42">
         <v>9</v>
@@ -7997,7 +7997,7 @@
         <v>1.11</v>
       </c>
       <c r="Y42">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="Z42">
         <v>1.7</v>
@@ -8012,19 +8012,19 @@
         <v>1.28</v>
       </c>
       <c r="AD42">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="AE42">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AF42">
         <v>2.5</v>
       </c>
       <c r="AG42">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AH42">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI42">
         <v>1.02</v>
@@ -8036,25 +8036,25 @@
         <v>189</v>
       </c>
       <c r="AL42">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AM42">
         <v>0</v>
       </c>
       <c r="AN42">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="AO42">
         <v>-1</v>
       </c>
       <c r="AP42">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ42">
         <v>1.84</v>
       </c>
       <c r="AR42">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="AS42">
         <v>3.14</v>
@@ -8066,10 +8066,10 @@
         <v>2.54</v>
       </c>
       <c r="AV42">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="AW42">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AX42">
         <v>1.27</v>
@@ -8316,10 +8316,10 @@
         <v>2.88</v>
       </c>
       <c r="R44">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="S44">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T44">
         <v>3.7</v>
@@ -8334,10 +8334,10 @@
         <v>1.02</v>
       </c>
       <c r="X44">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Y44">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Z44">
         <v>1.48</v>
@@ -8355,19 +8355,19 @@
         <v>5.25</v>
       </c>
       <c r="AE44">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AF44">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AG44">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AH44">
         <v>13</v>
       </c>
       <c r="AI44">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AJ44" t="s">
         <v>189</v>
@@ -8376,7 +8376,7 @@
         <v>189</v>
       </c>
       <c r="AL44">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AM44">
         <v>1.36</v>
@@ -8391,25 +8391,25 @@
         <v>1.21</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AR44">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="AS44">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="AT44">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="AU44">
         <v>3.3</v>
       </c>
       <c r="AV44">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="AW44">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AX44">
         <v>1.57</v>
